--- a/LEARNING PROGRAMMING.xlsx
+++ b/LEARNING PROGRAMMING.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alons\OneDrive\Рабочий стол\Programming\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945654A0-DF34-4293-AA40-6E7A183F75BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="19200" windowHeight="11535" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="19200" windowHeight="11535" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>JS</t>
   </si>
@@ -68,11 +74,14 @@
   <si>
     <t>142 продвинутые типы</t>
   </si>
+  <si>
+    <t>OUTUS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -333,6 +342,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1610852112" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
@@ -392,7 +404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,9 +437,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,6 +489,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -635,11 +681,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -758,9 +804,14 @@
       <c r="C44" s="18" t="s">
         <v>13</v>
       </c>
+      <c r="D44" s="18">
+        <v>113</v>
+      </c>
     </row>
     <row r="45" spans="1:16384" customFormat="1">
-      <c r="A45" s="19"/>
+      <c r="A45" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="B45" s="20"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>

--- a/LEARNING PROGRAMMING.xlsx
+++ b/LEARNING PROGRAMMING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alons\OneDrive\Рабочий стол\Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B414D3B-F389-4C0A-AF47-6239A11B88E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D602C5-4E1A-469C-93F0-5CF23F9DC86D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="19200" windowHeight="11535" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>JS</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>3 lesoon 5 video begin</t>
+  </si>
+  <si>
+    <t>vue js ninja</t>
+  </si>
+  <si>
+    <t>12 vid , 12:20</t>
   </si>
 </sst>
 </file>
@@ -687,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -33591,8 +33597,20 @@
       <c r="XFC47" s="21"/>
       <c r="XFD47" s="21"/>
     </row>
-    <row r="63" spans="1:1" ht="14.1" customHeight="1">
+    <row r="62" spans="1:5" s="24" customFormat="1" ht="26.45" customHeight="1">
+      <c r="A62" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="1:5" ht="14.1" customHeight="1">
       <c r="A63" s="4"/>
+      <c r="B63" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LEARNING PROGRAMMING.xlsx
+++ b/LEARNING PROGRAMMING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alons\OneDrive\Рабочий стол\Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D602C5-4E1A-469C-93F0-5CF23F9DC86D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803F342D-D9EC-446C-8013-609D52A053D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="19200" windowHeight="11535" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>JS</t>
   </si>
@@ -86,12 +86,27 @@
   <si>
     <t>12 vid , 12:20</t>
   </si>
+  <si>
+    <t>nest js</t>
+  </si>
+  <si>
+    <t>ubet eati clone</t>
+  </si>
+  <si>
+    <t>10 vid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">react </t>
+  </si>
+  <si>
+    <t>react twitter clone</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -156,8 +171,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,8 +205,25 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -263,11 +303,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -341,8 +454,51 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Акцент1" xfId="1" builtinId="29"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -691,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD63"/>
+  <dimension ref="A1:XFD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -33612,9 +33768,889 @@
         <v>18</v>
       </c>
     </row>
+    <row r="80" spans="1:5" s="29" customFormat="1" ht="33" customHeight="1">
+      <c r="A80" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" s="27"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+    </row>
+    <row r="81" spans="1:41" s="30" customFormat="1">
+      <c r="A81" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="33"/>
+      <c r="L81" s="33"/>
+      <c r="M81" s="33"/>
+      <c r="N81" s="33"/>
+      <c r="O81" s="33"/>
+      <c r="P81" s="33"/>
+      <c r="Q81" s="33"/>
+      <c r="R81" s="33"/>
+      <c r="S81" s="33"/>
+      <c r="T81" s="33"/>
+      <c r="U81" s="33"/>
+      <c r="V81" s="33"/>
+      <c r="W81" s="33"/>
+      <c r="X81" s="33"/>
+      <c r="Y81" s="33"/>
+      <c r="Z81" s="33"/>
+      <c r="AA81" s="33"/>
+      <c r="AB81" s="33"/>
+      <c r="AC81" s="33"/>
+      <c r="AD81" s="33"/>
+      <c r="AE81" s="33"/>
+      <c r="AF81" s="33"/>
+      <c r="AG81" s="33"/>
+      <c r="AH81" s="33"/>
+      <c r="AI81" s="33"/>
+      <c r="AJ81" s="33"/>
+      <c r="AK81" s="33"/>
+      <c r="AL81" s="33"/>
+      <c r="AM81" s="33"/>
+      <c r="AN81" s="33"/>
+      <c r="AO81" s="31"/>
+    </row>
+    <row r="82" spans="1:41" s="30" customFormat="1">
+      <c r="A82" s="38"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="33"/>
+      <c r="L82" s="33"/>
+      <c r="M82" s="33"/>
+      <c r="N82" s="33"/>
+      <c r="O82" s="33"/>
+      <c r="P82" s="33"/>
+      <c r="Q82" s="33"/>
+      <c r="R82" s="33"/>
+      <c r="S82" s="33"/>
+      <c r="T82" s="33"/>
+      <c r="U82" s="33"/>
+      <c r="V82" s="33"/>
+      <c r="W82" s="33"/>
+      <c r="X82" s="33"/>
+      <c r="Y82" s="33"/>
+      <c r="Z82" s="33"/>
+      <c r="AA82" s="33"/>
+      <c r="AB82" s="33"/>
+      <c r="AC82" s="33"/>
+      <c r="AD82" s="33"/>
+      <c r="AE82" s="33"/>
+      <c r="AF82" s="33"/>
+      <c r="AG82" s="33"/>
+      <c r="AH82" s="33"/>
+      <c r="AI82" s="33"/>
+      <c r="AJ82" s="33"/>
+      <c r="AK82" s="33"/>
+      <c r="AL82" s="33"/>
+      <c r="AM82" s="33"/>
+      <c r="AN82" s="33"/>
+      <c r="AO82" s="31"/>
+    </row>
+    <row r="83" spans="1:41" s="30" customFormat="1">
+      <c r="A83" s="38"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="33"/>
+      <c r="L83" s="33"/>
+      <c r="M83" s="33"/>
+      <c r="N83" s="33"/>
+      <c r="O83" s="33"/>
+      <c r="P83" s="33"/>
+      <c r="Q83" s="33"/>
+      <c r="R83" s="33"/>
+      <c r="S83" s="33"/>
+      <c r="T83" s="33"/>
+      <c r="U83" s="33"/>
+      <c r="V83" s="33"/>
+      <c r="W83" s="33"/>
+      <c r="X83" s="33"/>
+      <c r="Y83" s="33"/>
+      <c r="Z83" s="33"/>
+      <c r="AA83" s="33"/>
+      <c r="AB83" s="33"/>
+      <c r="AC83" s="33"/>
+      <c r="AD83" s="33"/>
+      <c r="AE83" s="33"/>
+      <c r="AF83" s="33"/>
+      <c r="AG83" s="33"/>
+      <c r="AH83" s="33"/>
+      <c r="AI83" s="33"/>
+      <c r="AJ83" s="33"/>
+      <c r="AK83" s="33"/>
+      <c r="AL83" s="33"/>
+      <c r="AM83" s="33"/>
+      <c r="AN83" s="33"/>
+      <c r="AO83" s="31"/>
+    </row>
+    <row r="84" spans="1:41" s="30" customFormat="1">
+      <c r="A84" s="38"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="33"/>
+      <c r="K84" s="33"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="33"/>
+      <c r="O84" s="33"/>
+      <c r="P84" s="33"/>
+      <c r="Q84" s="33"/>
+      <c r="R84" s="33"/>
+      <c r="S84" s="33"/>
+      <c r="T84" s="33"/>
+      <c r="U84" s="33"/>
+      <c r="V84" s="33"/>
+      <c r="W84" s="33"/>
+      <c r="X84" s="33"/>
+      <c r="Y84" s="33"/>
+      <c r="Z84" s="33"/>
+      <c r="AA84" s="33"/>
+      <c r="AB84" s="33"/>
+      <c r="AC84" s="33"/>
+      <c r="AD84" s="33"/>
+      <c r="AE84" s="33"/>
+      <c r="AF84" s="33"/>
+      <c r="AG84" s="33"/>
+      <c r="AH84" s="33"/>
+      <c r="AI84" s="33"/>
+      <c r="AJ84" s="33"/>
+      <c r="AK84" s="33"/>
+      <c r="AL84" s="33"/>
+      <c r="AM84" s="33"/>
+      <c r="AN84" s="33"/>
+      <c r="AO84" s="31"/>
+    </row>
+    <row r="85" spans="1:41" s="30" customFormat="1">
+      <c r="A85" s="38"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="33"/>
+      <c r="M85" s="33"/>
+      <c r="N85" s="33"/>
+      <c r="O85" s="33"/>
+      <c r="P85" s="33"/>
+      <c r="Q85" s="33"/>
+      <c r="R85" s="33"/>
+      <c r="S85" s="33"/>
+      <c r="T85" s="33"/>
+      <c r="U85" s="33"/>
+      <c r="V85" s="33"/>
+      <c r="W85" s="33"/>
+      <c r="X85" s="33"/>
+      <c r="Y85" s="33"/>
+      <c r="Z85" s="33"/>
+      <c r="AA85" s="33"/>
+      <c r="AB85" s="33"/>
+      <c r="AC85" s="33"/>
+      <c r="AD85" s="33"/>
+      <c r="AE85" s="33"/>
+      <c r="AF85" s="33"/>
+      <c r="AG85" s="33"/>
+      <c r="AH85" s="33"/>
+      <c r="AI85" s="33"/>
+      <c r="AJ85" s="33"/>
+      <c r="AK85" s="33"/>
+      <c r="AL85" s="33"/>
+      <c r="AM85" s="33"/>
+      <c r="AN85" s="33"/>
+      <c r="AO85" s="31"/>
+    </row>
+    <row r="86" spans="1:41" s="30" customFormat="1">
+      <c r="A86" s="38"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="33"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="33"/>
+      <c r="P86" s="33"/>
+      <c r="Q86" s="33"/>
+      <c r="R86" s="33"/>
+      <c r="S86" s="33"/>
+      <c r="T86" s="33"/>
+      <c r="U86" s="33"/>
+      <c r="V86" s="33"/>
+      <c r="W86" s="33"/>
+      <c r="X86" s="33"/>
+      <c r="Y86" s="33"/>
+      <c r="Z86" s="33"/>
+      <c r="AA86" s="33"/>
+      <c r="AB86" s="33"/>
+      <c r="AC86" s="33"/>
+      <c r="AD86" s="33"/>
+      <c r="AE86" s="33"/>
+      <c r="AF86" s="33"/>
+      <c r="AG86" s="33"/>
+      <c r="AH86" s="33"/>
+      <c r="AI86" s="33"/>
+      <c r="AJ86" s="33"/>
+      <c r="AK86" s="33"/>
+      <c r="AL86" s="33"/>
+      <c r="AM86" s="33"/>
+      <c r="AN86" s="33"/>
+      <c r="AO86" s="31"/>
+    </row>
+    <row r="87" spans="1:41" s="30" customFormat="1">
+      <c r="A87" s="38"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="33"/>
+      <c r="L87" s="33"/>
+      <c r="M87" s="33"/>
+      <c r="N87" s="33"/>
+      <c r="O87" s="33"/>
+      <c r="P87" s="33"/>
+      <c r="Q87" s="33"/>
+      <c r="R87" s="33"/>
+      <c r="S87" s="33"/>
+      <c r="T87" s="33"/>
+      <c r="U87" s="33"/>
+      <c r="V87" s="33"/>
+      <c r="W87" s="33"/>
+      <c r="X87" s="33"/>
+      <c r="Y87" s="33"/>
+      <c r="Z87" s="33"/>
+      <c r="AA87" s="33"/>
+      <c r="AB87" s="33"/>
+      <c r="AC87" s="33"/>
+      <c r="AD87" s="33"/>
+      <c r="AE87" s="33"/>
+      <c r="AF87" s="33"/>
+      <c r="AG87" s="33"/>
+      <c r="AH87" s="33"/>
+      <c r="AI87" s="33"/>
+      <c r="AJ87" s="33"/>
+      <c r="AK87" s="33"/>
+      <c r="AL87" s="33"/>
+      <c r="AM87" s="33"/>
+      <c r="AN87" s="33"/>
+      <c r="AO87" s="31"/>
+    </row>
+    <row r="88" spans="1:41" s="30" customFormat="1">
+      <c r="A88" s="38"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="33"/>
+      <c r="M88" s="33"/>
+      <c r="N88" s="33"/>
+      <c r="O88" s="33"/>
+      <c r="P88" s="33"/>
+      <c r="Q88" s="33"/>
+      <c r="R88" s="33"/>
+      <c r="S88" s="33"/>
+      <c r="T88" s="33"/>
+      <c r="U88" s="33"/>
+      <c r="V88" s="33"/>
+      <c r="W88" s="33"/>
+      <c r="X88" s="33"/>
+      <c r="Y88" s="33"/>
+      <c r="Z88" s="33"/>
+      <c r="AA88" s="33"/>
+      <c r="AB88" s="33"/>
+      <c r="AC88" s="33"/>
+      <c r="AD88" s="33"/>
+      <c r="AE88" s="33"/>
+      <c r="AF88" s="33"/>
+      <c r="AG88" s="33"/>
+      <c r="AH88" s="33"/>
+      <c r="AI88" s="33"/>
+      <c r="AJ88" s="33"/>
+      <c r="AK88" s="33"/>
+      <c r="AL88" s="33"/>
+      <c r="AM88" s="33"/>
+      <c r="AN88" s="33"/>
+      <c r="AO88" s="31"/>
+    </row>
+    <row r="89" spans="1:41" s="30" customFormat="1">
+      <c r="A89" s="38"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="33"/>
+      <c r="M89" s="33"/>
+      <c r="N89" s="33"/>
+      <c r="O89" s="33"/>
+      <c r="P89" s="33"/>
+      <c r="Q89" s="33"/>
+      <c r="R89" s="33"/>
+      <c r="S89" s="33"/>
+      <c r="T89" s="33"/>
+      <c r="U89" s="33"/>
+      <c r="V89" s="33"/>
+      <c r="W89" s="33"/>
+      <c r="X89" s="33"/>
+      <c r="Y89" s="33"/>
+      <c r="Z89" s="33"/>
+      <c r="AA89" s="33"/>
+      <c r="AB89" s="33"/>
+      <c r="AC89" s="33"/>
+      <c r="AD89" s="33"/>
+      <c r="AE89" s="33"/>
+      <c r="AF89" s="33"/>
+      <c r="AG89" s="33"/>
+      <c r="AH89" s="33"/>
+      <c r="AI89" s="33"/>
+      <c r="AJ89" s="33"/>
+      <c r="AK89" s="33"/>
+      <c r="AL89" s="33"/>
+      <c r="AM89" s="33"/>
+      <c r="AN89" s="33"/>
+      <c r="AO89" s="31"/>
+    </row>
+    <row r="90" spans="1:41" s="30" customFormat="1">
+      <c r="A90" s="38"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="33"/>
+      <c r="L90" s="33"/>
+      <c r="M90" s="33"/>
+      <c r="N90" s="33"/>
+      <c r="O90" s="33"/>
+      <c r="P90" s="33"/>
+      <c r="Q90" s="33"/>
+      <c r="R90" s="33"/>
+      <c r="S90" s="33"/>
+      <c r="T90" s="33"/>
+      <c r="U90" s="33"/>
+      <c r="V90" s="33"/>
+      <c r="W90" s="33"/>
+      <c r="X90" s="33"/>
+      <c r="Y90" s="33"/>
+      <c r="Z90" s="33"/>
+      <c r="AA90" s="33"/>
+      <c r="AB90" s="33"/>
+      <c r="AC90" s="33"/>
+      <c r="AD90" s="33"/>
+      <c r="AE90" s="33"/>
+      <c r="AF90" s="33"/>
+      <c r="AG90" s="33"/>
+      <c r="AH90" s="33"/>
+      <c r="AI90" s="33"/>
+      <c r="AJ90" s="33"/>
+      <c r="AK90" s="33"/>
+      <c r="AL90" s="33"/>
+      <c r="AM90" s="33"/>
+      <c r="AN90" s="33"/>
+      <c r="AO90" s="31"/>
+    </row>
+    <row r="91" spans="1:41" s="30" customFormat="1">
+      <c r="A91" s="38"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="33"/>
+      <c r="L91" s="33"/>
+      <c r="M91" s="33"/>
+      <c r="N91" s="33"/>
+      <c r="O91" s="33"/>
+      <c r="P91" s="33"/>
+      <c r="Q91" s="33"/>
+      <c r="R91" s="33"/>
+      <c r="S91" s="33"/>
+      <c r="T91" s="33"/>
+      <c r="U91" s="33"/>
+      <c r="V91" s="33"/>
+      <c r="W91" s="33"/>
+      <c r="X91" s="33"/>
+      <c r="Y91" s="33"/>
+      <c r="Z91" s="33"/>
+      <c r="AA91" s="33"/>
+      <c r="AB91" s="33"/>
+      <c r="AC91" s="33"/>
+      <c r="AD91" s="33"/>
+      <c r="AE91" s="33"/>
+      <c r="AF91" s="33"/>
+      <c r="AG91" s="33"/>
+      <c r="AH91" s="33"/>
+      <c r="AI91" s="33"/>
+      <c r="AJ91" s="33"/>
+      <c r="AK91" s="33"/>
+      <c r="AL91" s="33"/>
+      <c r="AM91" s="33"/>
+      <c r="AN91" s="33"/>
+      <c r="AO91" s="31"/>
+    </row>
+    <row r="92" spans="1:41" s="30" customFormat="1">
+      <c r="A92" s="38"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="33"/>
+      <c r="M92" s="33"/>
+      <c r="N92" s="33"/>
+      <c r="O92" s="33"/>
+      <c r="P92" s="33"/>
+      <c r="Q92" s="33"/>
+      <c r="R92" s="33"/>
+      <c r="S92" s="33"/>
+      <c r="T92" s="33"/>
+      <c r="U92" s="33"/>
+      <c r="V92" s="33"/>
+      <c r="W92" s="33"/>
+      <c r="X92" s="33"/>
+      <c r="Y92" s="33"/>
+      <c r="Z92" s="33"/>
+      <c r="AA92" s="33"/>
+      <c r="AB92" s="33"/>
+      <c r="AC92" s="33"/>
+      <c r="AD92" s="33"/>
+      <c r="AE92" s="33"/>
+      <c r="AF92" s="33"/>
+      <c r="AG92" s="33"/>
+      <c r="AH92" s="33"/>
+      <c r="AI92" s="33"/>
+      <c r="AJ92" s="33"/>
+      <c r="AK92" s="33"/>
+      <c r="AL92" s="33"/>
+      <c r="AM92" s="33"/>
+      <c r="AN92" s="33"/>
+      <c r="AO92" s="31"/>
+    </row>
+    <row r="93" spans="1:41" s="30" customFormat="1">
+      <c r="A93" s="38"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="33"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="33"/>
+      <c r="L93" s="33"/>
+      <c r="M93" s="33"/>
+      <c r="N93" s="33"/>
+      <c r="O93" s="33"/>
+      <c r="P93" s="33"/>
+      <c r="Q93" s="33"/>
+      <c r="R93" s="33"/>
+      <c r="S93" s="33"/>
+      <c r="T93" s="33"/>
+      <c r="U93" s="33"/>
+      <c r="V93" s="33"/>
+      <c r="W93" s="33"/>
+      <c r="X93" s="33"/>
+      <c r="Y93" s="33"/>
+      <c r="Z93" s="33"/>
+      <c r="AA93" s="33"/>
+      <c r="AB93" s="33"/>
+      <c r="AC93" s="33"/>
+      <c r="AD93" s="33"/>
+      <c r="AE93" s="33"/>
+      <c r="AF93" s="33"/>
+      <c r="AG93" s="33"/>
+      <c r="AH93" s="33"/>
+      <c r="AI93" s="33"/>
+      <c r="AJ93" s="33"/>
+      <c r="AK93" s="33"/>
+      <c r="AL93" s="33"/>
+      <c r="AM93" s="33"/>
+      <c r="AN93" s="33"/>
+      <c r="AO93" s="31"/>
+    </row>
+    <row r="94" spans="1:41" s="30" customFormat="1">
+      <c r="A94" s="38"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="33"/>
+      <c r="L94" s="33"/>
+      <c r="M94" s="33"/>
+      <c r="N94" s="33"/>
+      <c r="O94" s="33"/>
+      <c r="P94" s="33"/>
+      <c r="Q94" s="33"/>
+      <c r="R94" s="33"/>
+      <c r="S94" s="33"/>
+      <c r="T94" s="33"/>
+      <c r="U94" s="33"/>
+      <c r="V94" s="33"/>
+      <c r="W94" s="33"/>
+      <c r="X94" s="33"/>
+      <c r="Y94" s="33"/>
+      <c r="Z94" s="33"/>
+      <c r="AA94" s="33"/>
+      <c r="AB94" s="33"/>
+      <c r="AC94" s="33"/>
+      <c r="AD94" s="33"/>
+      <c r="AE94" s="33"/>
+      <c r="AF94" s="33"/>
+      <c r="AG94" s="33"/>
+      <c r="AH94" s="33"/>
+      <c r="AI94" s="33"/>
+      <c r="AJ94" s="33"/>
+      <c r="AK94" s="33"/>
+      <c r="AL94" s="33"/>
+      <c r="AM94" s="33"/>
+      <c r="AN94" s="33"/>
+      <c r="AO94" s="31"/>
+    </row>
+    <row r="95" spans="1:41" s="30" customFormat="1">
+      <c r="A95" s="38"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="33"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="33"/>
+      <c r="L95" s="33"/>
+      <c r="M95" s="33"/>
+      <c r="N95" s="33"/>
+      <c r="O95" s="33"/>
+      <c r="P95" s="33"/>
+      <c r="Q95" s="33"/>
+      <c r="R95" s="33"/>
+      <c r="S95" s="33"/>
+      <c r="T95" s="33"/>
+      <c r="U95" s="33"/>
+      <c r="V95" s="33"/>
+      <c r="W95" s="33"/>
+      <c r="X95" s="33"/>
+      <c r="Y95" s="33"/>
+      <c r="Z95" s="33"/>
+      <c r="AA95" s="33"/>
+      <c r="AB95" s="33"/>
+      <c r="AC95" s="33"/>
+      <c r="AD95" s="33"/>
+      <c r="AE95" s="33"/>
+      <c r="AF95" s="33"/>
+      <c r="AG95" s="33"/>
+      <c r="AH95" s="33"/>
+      <c r="AI95" s="33"/>
+      <c r="AJ95" s="33"/>
+      <c r="AK95" s="33"/>
+      <c r="AL95" s="33"/>
+      <c r="AM95" s="33"/>
+      <c r="AN95" s="33"/>
+      <c r="AO95" s="31"/>
+    </row>
+    <row r="96" spans="1:41" s="30" customFormat="1">
+      <c r="A96" s="38"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="33"/>
+      <c r="K96" s="33"/>
+      <c r="L96" s="33"/>
+      <c r="M96" s="33"/>
+      <c r="N96" s="33"/>
+      <c r="O96" s="33"/>
+      <c r="P96" s="33"/>
+      <c r="Q96" s="33"/>
+      <c r="R96" s="33"/>
+      <c r="S96" s="33"/>
+      <c r="T96" s="33"/>
+      <c r="U96" s="33"/>
+      <c r="V96" s="33"/>
+      <c r="W96" s="33"/>
+      <c r="X96" s="33"/>
+      <c r="Y96" s="33"/>
+      <c r="Z96" s="33"/>
+      <c r="AA96" s="33"/>
+      <c r="AB96" s="33"/>
+      <c r="AC96" s="33"/>
+      <c r="AD96" s="33"/>
+      <c r="AE96" s="33"/>
+      <c r="AF96" s="33"/>
+      <c r="AG96" s="33"/>
+      <c r="AH96" s="33"/>
+      <c r="AI96" s="33"/>
+      <c r="AJ96" s="33"/>
+      <c r="AK96" s="33"/>
+      <c r="AL96" s="33"/>
+      <c r="AM96" s="33"/>
+      <c r="AN96" s="33"/>
+      <c r="AO96" s="31"/>
+    </row>
+    <row r="97" spans="1:41" s="30" customFormat="1">
+      <c r="A97" s="38"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="33"/>
+      <c r="J97" s="33"/>
+      <c r="K97" s="33"/>
+      <c r="L97" s="33"/>
+      <c r="M97" s="33"/>
+      <c r="N97" s="33"/>
+      <c r="O97" s="33"/>
+      <c r="P97" s="33"/>
+      <c r="Q97" s="33"/>
+      <c r="R97" s="33"/>
+      <c r="S97" s="33"/>
+      <c r="T97" s="33"/>
+      <c r="U97" s="33"/>
+      <c r="V97" s="33"/>
+      <c r="W97" s="33"/>
+      <c r="X97" s="33"/>
+      <c r="Y97" s="33"/>
+      <c r="Z97" s="33"/>
+      <c r="AA97" s="33"/>
+      <c r="AB97" s="33"/>
+      <c r="AC97" s="33"/>
+      <c r="AD97" s="33"/>
+      <c r="AE97" s="33"/>
+      <c r="AF97" s="33"/>
+      <c r="AG97" s="33"/>
+      <c r="AH97" s="33"/>
+      <c r="AI97" s="33"/>
+      <c r="AJ97" s="33"/>
+      <c r="AK97" s="33"/>
+      <c r="AL97" s="33"/>
+      <c r="AM97" s="33"/>
+      <c r="AN97" s="33"/>
+      <c r="AO97" s="31"/>
+    </row>
+    <row r="98" spans="1:41" s="30" customFormat="1">
+      <c r="A98" s="38"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="33"/>
+      <c r="J98" s="33"/>
+      <c r="K98" s="33"/>
+      <c r="L98" s="33"/>
+      <c r="M98" s="33"/>
+      <c r="N98" s="33"/>
+      <c r="O98" s="33"/>
+      <c r="P98" s="33"/>
+      <c r="Q98" s="33"/>
+      <c r="R98" s="33"/>
+      <c r="S98" s="33"/>
+      <c r="T98" s="33"/>
+      <c r="U98" s="33"/>
+      <c r="V98" s="33"/>
+      <c r="W98" s="33"/>
+      <c r="X98" s="33"/>
+      <c r="Y98" s="33"/>
+      <c r="Z98" s="33"/>
+      <c r="AA98" s="33"/>
+      <c r="AB98" s="33"/>
+      <c r="AC98" s="33"/>
+      <c r="AD98" s="33"/>
+      <c r="AE98" s="33"/>
+      <c r="AF98" s="33"/>
+      <c r="AG98" s="33"/>
+      <c r="AH98" s="33"/>
+      <c r="AI98" s="33"/>
+      <c r="AJ98" s="33"/>
+      <c r="AK98" s="33"/>
+      <c r="AL98" s="33"/>
+      <c r="AM98" s="33"/>
+      <c r="AN98" s="33"/>
+      <c r="AO98" s="31"/>
+    </row>
+    <row r="99" spans="1:41" s="30" customFormat="1">
+      <c r="A99" s="38"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="33"/>
+      <c r="L99" s="33"/>
+      <c r="M99" s="33"/>
+      <c r="N99" s="33"/>
+      <c r="O99" s="33"/>
+      <c r="P99" s="33"/>
+      <c r="Q99" s="33"/>
+      <c r="R99" s="33"/>
+      <c r="S99" s="33"/>
+      <c r="T99" s="33"/>
+      <c r="U99" s="33"/>
+      <c r="V99" s="33"/>
+      <c r="W99" s="33"/>
+      <c r="X99" s="33"/>
+      <c r="Y99" s="33"/>
+      <c r="Z99" s="33"/>
+      <c r="AA99" s="33"/>
+      <c r="AB99" s="33"/>
+      <c r="AC99" s="33"/>
+      <c r="AD99" s="33"/>
+      <c r="AE99" s="33"/>
+      <c r="AF99" s="33"/>
+      <c r="AG99" s="33"/>
+      <c r="AH99" s="33"/>
+      <c r="AI99" s="33"/>
+      <c r="AJ99" s="33"/>
+      <c r="AK99" s="33"/>
+      <c r="AL99" s="33"/>
+      <c r="AM99" s="33"/>
+      <c r="AN99" s="33"/>
+      <c r="AO99" s="31"/>
+    </row>
+    <row r="100" spans="1:41" s="25" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A100" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" s="35"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="37"/>
+      <c r="K100" s="37"/>
+      <c r="L100" s="37"/>
+      <c r="M100" s="37"/>
+      <c r="N100" s="37"/>
+      <c r="O100" s="37"/>
+      <c r="P100" s="37"/>
+      <c r="Q100" s="37"/>
+      <c r="R100" s="37"/>
+      <c r="S100" s="37"/>
+      <c r="T100" s="37"/>
+      <c r="U100" s="37"/>
+      <c r="V100" s="37"/>
+      <c r="W100" s="37"/>
+      <c r="X100" s="37"/>
+      <c r="Y100" s="37"/>
+      <c r="Z100" s="37"/>
+      <c r="AA100" s="37"/>
+      <c r="AB100" s="37"/>
+      <c r="AC100" s="37"/>
+      <c r="AD100" s="37"/>
+      <c r="AE100" s="37"/>
+      <c r="AF100" s="37"/>
+      <c r="AG100" s="37"/>
+      <c r="AH100" s="37"/>
+      <c r="AI100" s="37"/>
+      <c r="AJ100" s="37"/>
+      <c r="AK100" s="37"/>
+      <c r="AL100" s="37"/>
+      <c r="AM100" s="37"/>
+      <c r="AN100" s="37"/>
+    </row>
+    <row r="101" spans="1:41" ht="24.75" customHeight="1">
+      <c r="A101" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1610852112" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">

--- a/LEARNING PROGRAMMING.xlsx
+++ b/LEARNING PROGRAMMING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alons\OneDrive\Рабочий стол\Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803F342D-D9EC-446C-8013-609D52A053D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABC2468-9FB7-44E5-81E1-EC48B34C305E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="19200" windowHeight="11535" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>JS</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>react twitter clone</t>
+  </si>
+  <si>
+    <t>1 vid 42 min</t>
   </si>
 </sst>
 </file>
@@ -849,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -33781,7 +33784,9 @@
       <c r="A81" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B81" s="33"/>
+      <c r="B81" s="33" t="s">
+        <v>24</v>
+      </c>
       <c r="C81" s="33"/>
       <c r="D81" s="33"/>
       <c r="E81" s="33"/>

--- a/LEARNING PROGRAMMING.xlsx
+++ b/LEARNING PROGRAMMING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alons\OneDrive\Рабочий стол\Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABC2468-9FB7-44E5-81E1-EC48B34C305E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3F3C5E-047D-4A8F-94B8-6DB5E88CB62D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="19200" windowHeight="11535" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>JS</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>1 vid 42 min</t>
+  </si>
+  <si>
+    <t>material  ui</t>
   </si>
 </sst>
 </file>
@@ -383,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -497,6 +500,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -852,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -33828,8 +33834,12 @@
       <c r="AO81" s="31"/>
     </row>
     <row r="82" spans="1:41" s="30" customFormat="1">
-      <c r="A82" s="38"/>
-      <c r="B82" s="33"/>
+      <c r="A82" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="39">
+        <v>0.13333333333333333</v>
+      </c>
       <c r="C82" s="33"/>
       <c r="D82" s="33"/>
       <c r="E82" s="33"/>
